--- a/document/袁廷汉-源代码-理财精灵开发进度表.xlsx
+++ b/document/袁廷汉-源代码-理财精灵开发进度表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="51">
   <si>
     <t>产品</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -228,6 +228,22 @@
   </si>
   <si>
     <t>张文亮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁廷汉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询交易密码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -671,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -882,10 +898,10 @@
         <v>41</v>
       </c>
       <c r="G17" s="4">
-        <v>43028</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>23</v>
+        <v>43030</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -898,8 +914,8 @@
       <c r="G18" s="4">
         <v>43028</v>
       </c>
-      <c r="H18" s="8" t="s">
-        <v>23</v>
+      <c r="H18" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -959,41 +975,41 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>12</v>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="4">
+        <v>43029</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G24" s="4">
-        <v>43027</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>33</v>
+        <v>43030</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G25" s="4">
-        <v>43027</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>33</v>
+      <c r="B25" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F26" t="s">
         <v>38</v>
@@ -1005,8 +1021,36 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" s="4">
+        <v>43027</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" s="4">
+        <v>43027</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>20</v>
       </c>
     </row>

--- a/document/袁廷汉-源代码-理财精灵开发进度表.xlsx
+++ b/document/袁廷汉-源代码-理财精灵开发进度表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -215,10 +215,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>管理员相关页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>赵宇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -244,13 +240,17 @@
   </si>
   <si>
     <t>查询交易密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员相关页面的编写</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -350,7 +350,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{357C21AA-5727-40CB-AC4A-77F7AD885F6B}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -409,7 +409,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -442,26 +442,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -494,23 +477,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -686,22 +652,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+    <col min="1" max="1" width="15.75" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="7" width="15.77734375" customWidth="1"/>
-    <col min="8" max="8" width="29.88671875" customWidth="1"/>
+    <col min="3" max="7" width="15.75" customWidth="1"/>
+    <col min="8" max="8" width="29.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -713,7 +679,7 @@
       <c r="E1" s="9"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -728,12 +694,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -747,7 +713,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -761,7 +727,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>16</v>
       </c>
@@ -775,7 +741,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="6" t="s">
         <v>26</v>
       </c>
@@ -792,7 +758,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>28</v>
       </c>
@@ -806,7 +772,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>30</v>
       </c>
@@ -820,7 +786,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>32</v>
       </c>
@@ -834,40 +800,40 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" t="s">
         <v>43</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" s="4">
+        <v>43026</v>
+      </c>
+      <c r="H11" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="4">
-        <v>43027</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G12" s="4"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" t="s">
         <v>6</v>
       </c>
       <c r="F15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G15" s="4">
         <v>43028</v>
@@ -876,7 +842,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" t="s">
         <v>7</v>
       </c>
@@ -890,7 +856,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" t="s">
         <v>8</v>
       </c>
@@ -904,7 +870,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" t="s">
         <v>9</v>
       </c>
@@ -918,7 +884,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" t="s">
         <v>10</v>
       </c>
@@ -932,7 +898,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" t="s">
         <v>35</v>
       </c>
@@ -946,7 +912,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" t="s">
         <v>39</v>
       </c>
@@ -960,7 +926,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" t="s">
         <v>40</v>
       </c>
@@ -974,12 +940,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G23" s="4">
         <v>43029</v>
@@ -988,26 +954,26 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" s="4">
         <v>43030</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" t="s">
         <v>13</v>
       </c>
@@ -1021,7 +987,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" t="s">
         <v>14</v>
       </c>
@@ -1035,7 +1001,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -1049,7 +1015,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -1065,12 +1031,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1078,12 +1044,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/袁廷汉-源代码-理财精灵开发进度表.xlsx
+++ b/document/袁廷汉-源代码-理财精灵开发进度表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
   <si>
     <t>产品</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,11 +143,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>关于我们，信息披露页面的编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊彪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我要出借相关页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩嘉欣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我要借款相关页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未启动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model的编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁廷汉、林海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁廷汉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵宇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>进行中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>关于我们，信息披露页面的编写</t>
+    <t>张文亮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁廷汉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询交易密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员相关页面的编写</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -159,91 +239,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>熊彪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我要出借相关页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>韩嘉欣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我要借款相关页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未启动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>暂无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>model的编写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>袁廷汉、林海</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>袁廷汉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵宇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进行中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张文亮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>充值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>袁廷汉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询交易密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员相关页面的编写</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -276,12 +272,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -296,11 +298,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -315,10 +314,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -653,38 +657,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.75" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="7" width="15.75" customWidth="1"/>
-    <col min="8" max="8" width="29.875" customWidth="1"/>
+    <col min="3" max="7" width="15.77734375" customWidth="1"/>
+    <col min="8" max="8" width="29.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="3" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G2" t="s">
@@ -694,328 +698,353 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="F4" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>43027</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H4" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>43027</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H5" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>16</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>43026</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="6" t="s">
+      <c r="H6" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="10">
+        <v>43027</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="9">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="G8" s="3">
+        <v>43027</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="4">
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="3">
         <v>43027</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H9" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="3">
+        <v>43027</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="10">
+        <v>43026</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="9">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="4">
-        <v>43027</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="4">
-        <v>43027</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="4">
-        <v>43027</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="4">
-        <v>43026</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G12" s="4"/>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="3"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>6</v>
       </c>
       <c r="F15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" s="4">
+        <v>41</v>
+      </c>
+      <c r="G15" s="3">
         <v>43028</v>
       </c>
-      <c r="H15" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H15" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>7</v>
       </c>
       <c r="F16" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="3">
         <v>43028</v>
       </c>
-      <c r="H16" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H16" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17" s="4">
+        <v>37</v>
+      </c>
+      <c r="G17" s="3">
         <v>43030</v>
       </c>
-      <c r="H17" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H17" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
-      </c>
-      <c r="G18" s="4">
+        <v>37</v>
+      </c>
+      <c r="G18" s="3">
         <v>43028</v>
       </c>
-      <c r="H18" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C19" t="s">
+      <c r="H18" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="4">
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="10">
         <v>43025</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="3">
+        <v>43026</v>
+      </c>
+      <c r="H20" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C20" t="s">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
         <v>35</v>
-      </c>
-      <c r="F20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" s="4">
-        <v>43026</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C21" t="s">
-        <v>39</v>
       </c>
       <c r="F21" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="3">
         <v>43027</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C22" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22" t="s">
-        <v>41</v>
-      </c>
-      <c r="G22" s="4">
+      <c r="G22" s="3">
         <v>43028</v>
       </c>
-      <c r="H22" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H22" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>47</v>
-      </c>
-      <c r="G23" s="4">
+        <v>43</v>
+      </c>
+      <c r="G23" s="3">
         <v>43029</v>
       </c>
-      <c r="H23" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H23" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F24" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24" s="4">
+        <v>43</v>
+      </c>
+      <c r="G24" s="3">
         <v>43030</v>
       </c>
-      <c r="H24" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H24" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C26" t="s">
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F26" t="s">
-        <v>38</v>
-      </c>
-      <c r="G26" s="4">
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="10">
         <v>43027</v>
       </c>
-      <c r="H26" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C27" t="s">
+      <c r="H26" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I26" s="9"/>
+    </row>
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" s="4">
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="10">
         <v>43027</v>
       </c>
-      <c r="H27" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C28" t="s">
+      <c r="H27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27" s="9"/>
+    </row>
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F28" t="s">
-        <v>38</v>
-      </c>
-      <c r="G28" s="4">
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" s="10">
         <v>43027</v>
       </c>
-      <c r="H28" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H28" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I28" s="9"/>
+    </row>
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -1036,7 +1065,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1049,7 +1078,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
